--- a/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E23BEE-6A0A-49D1-937D-1C1A81D990A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2ADD30B-DE54-42C7-B66E-1243EEE222DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22669,7 +22669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486DE5C2-7792-4300-9D31-E515DDD28732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9CFD6A-04A2-4E8C-BCE5-9C51EA97CBC6}">
   <dimension ref="A9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22767,7 +22767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBC947A-01D0-45DB-A546-AEF6DEB985ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5FAEA9-AA49-4B90-83AE-55061A7E0989}">
   <dimension ref="A9:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,7 +22827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BBBD79-90B3-4C76-AB35-B48F2A0874B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1B7B14-A3FD-4E49-858E-CA402C4ECF06}">
   <dimension ref="A9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2ADD30B-DE54-42C7-B66E-1243EEE222DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A65415-1943-4B3E-9213-A7B53D10E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22669,7 +22669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9CFD6A-04A2-4E8C-BCE5-9C51EA97CBC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72E5E-ED12-4EA3-BA2E-025179707583}">
   <dimension ref="A9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22767,7 +22767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5FAEA9-AA49-4B90-83AE-55061A7E0989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2600C62C-5310-4737-AB28-5826128B9EAF}">
   <dimension ref="A9:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,7 +22827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1B7B14-A3FD-4E49-858E-CA402C4ECF06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD00194-018A-4B55-8516-3419BAFF9720}">
   <dimension ref="A9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A65415-1943-4B3E-9213-A7B53D10E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03121177-397D-44AD-908F-688F54360CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22669,7 +22669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72E5E-ED12-4EA3-BA2E-025179707583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213639BD-2E18-47C9-A1CD-2F590323501E}">
   <dimension ref="A9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22767,7 +22767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2600C62C-5310-4737-AB28-5826128B9EAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A038F9-A4CD-4630-B9D5-836E74EFD764}">
   <dimension ref="A9:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,7 +22827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD00194-018A-4B55-8516-3419BAFF9720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E496431-5E91-4216-B8B6-56724496DCB1}">
   <dimension ref="A9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03121177-397D-44AD-908F-688F54360CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFE0DAC-A6BA-47CA-9A4A-36DCA5FEB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22669,7 +22669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213639BD-2E18-47C9-A1CD-2F590323501E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748AFEDA-5634-416F-9F27-0A779B0C0F66}">
   <dimension ref="A9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22767,7 +22767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A038F9-A4CD-4630-B9D5-836E74EFD764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B68A00-4CAE-460C-BEE0-A151D2C8F2A5}">
   <dimension ref="A9:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,7 +22827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E496431-5E91-4216-B8B6-56724496DCB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E70484-542F-4C82-B850-37D76EB8B7E5}">
   <dimension ref="A9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFE0DAC-A6BA-47CA-9A4A-36DCA5FEB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE95B2EF-B985-4262-9D68-E1BA7CF4DC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22669,7 +22669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748AFEDA-5634-416F-9F27-0A779B0C0F66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7235D0B6-091E-435F-97C2-464811F688D0}">
   <dimension ref="A9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22767,7 +22767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B68A00-4CAE-460C-BEE0-A151D2C8F2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481C2DEF-94B9-4A30-826D-D3755344667F}">
   <dimension ref="A9:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,7 +22827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E70484-542F-4C82-B850-37D76EB8B7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005723BA-075D-41D6-8A2B-6F8334946BF8}">
   <dimension ref="A9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B594E67F-B40A-458B-A4FF-09663F26F225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39AE8839-9A88-439F-8243-726849334AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22669,7 +22669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69A778A-029A-4958-B148-34703284160E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269EDB67-7E3E-4794-9DFE-FF6F8681478E}">
   <dimension ref="A9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22767,7 +22767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5017106F-89EE-4A8B-A2D7-48E26A9E63AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD6EF64-EA14-423B-8285-9EAD6741A23A}">
   <dimension ref="A9:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,7 +22827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C8602B-29B0-4958-B97D-510BD84F1039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B52716-C219-495C-BB69-3D19A7BF6DC0}">
   <dimension ref="A9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39AE8839-9A88-439F-8243-726849334AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C11050-B4C0-48EC-8969-1E50EDAEC304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22669,7 +22669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269EDB67-7E3E-4794-9DFE-FF6F8681478E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EF90CE-D9B4-477E-9B7B-68AE2F0AF358}">
   <dimension ref="A9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22767,7 +22767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD6EF64-EA14-423B-8285-9EAD6741A23A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA35D3EE-FEE7-4F5B-B00E-1B42DD6F062C}">
   <dimension ref="A9:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,7 +22827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B52716-C219-495C-BB69-3D19A7BF6DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE2A11-8BE9-46CB-8AAA-F677AA0D0634}">
   <dimension ref="A9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C11050-B4C0-48EC-8969-1E50EDAEC304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA99C6ED-4F07-4258-9F53-DACAF6B4082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22669,7 +22669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EF90CE-D9B4-477E-9B7B-68AE2F0AF358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C71677E-855F-4C5C-A33A-02FEED443C15}">
   <dimension ref="A9:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22767,7 +22767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA35D3EE-FEE7-4F5B-B00E-1B42DD6F062C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72365B91-3969-4A5B-8466-600BB8A6DFCA}">
   <dimension ref="A9:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22827,7 +22827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE2A11-8BE9-46CB-8AAA-F677AA0D0634}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677AE490-BE8C-4D8A-BD11-7F7B0F017448}">
   <dimension ref="A9:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
